--- a/biology/Médecine/1731_en_santé_et_médecine/1731_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1731_en_santé_et_médecine/1731_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1731_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1731_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1731 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1731_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1731_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17 mars : arrêt du Conseil d'État du roi instituant la Commission des remèdes spécifiques[1].
-18 décembre : création de l'Académie royale de Chirurgie en France[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 mars : arrêt du Conseil d'État du roi instituant la Commission des remèdes spécifiques.
+18 décembre : création de l'Académie royale de Chirurgie en France.
 Non précisé
-Création de l'École de médecine navale de Brest[3].</t>
+Création de l'École de médecine navale de Brest.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1731_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1731_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>24 juillet : Louis Claude Cadet de Gassicourt (mort en 1799), chimiste et pharmacien français[4].
-12 décembre : Erasmus Darwin (mort en 1802), médecin, poète, botaniste et inventeur britannique[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>24 juillet : Louis Claude Cadet de Gassicourt (mort en 1799), chimiste et pharmacien français.
+12 décembre : Erasmus Darwin (mort en 1802), médecin, poète, botaniste et inventeur britannique.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1731_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1731_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6 janvier : Étienne-François Geoffroy (né en 1672), médecin et chimiste français[6].
-22 février : Frederik Ruysch (né en 1638), médecin néerlandais, professeur d'anatomie et de botanique[7].
-26 mars : Magnus von Bromell (né en 1679), médecin suédois[8].
-25 décembre : Caspar Commelijn (né en 1668), médecin et botaniste néerlandais[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6 janvier : Étienne-François Geoffroy (né en 1672), médecin et chimiste français.
+22 février : Frederik Ruysch (né en 1638), médecin néerlandais, professeur d'anatomie et de botanique.
+26 mars : Magnus von Bromell (né en 1679), médecin suédois.
+25 décembre : Caspar Commelijn (né en 1668), médecin et botaniste néerlandais.</t>
         </is>
       </c>
     </row>
